--- a/static/results.xlsx
+++ b/static/results.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Товары" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -134,6 +122,1011 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>34</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>38</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="38" name="Image 38" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="39" name="Image 39" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>40</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="40" name="Image 40" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,712 +1418,724 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Фото</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>Название</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Цена (сом)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Ссылка</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Huawei Nova 10SE 8/256GB черный</t>
-        </is>
-      </c>
+    <row r="2" ht="80" customHeight="1">
       <c r="B2" t="inlineStr">
         <is>
-          <t>17050</t>
+          <t>Рюкзак для ноутбука Deluxe A-1748 черно-серый</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-huawei-nova-10se-8-256gb-chernyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Huawei Nova 10SE 8/256GB мятный</t>
-        </is>
-      </c>
+          <t>2930</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/ryukzak-dlya-noutbuka-deluxe-a-1748-cherno-seryy</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="80" customHeight="1">
       <c r="B3" t="inlineStr">
         <is>
-          <t>17050</t>
+          <t>Рюкзак для ноутбука Deluxe A-1854 черно-серый</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-huawei-nova-10se-8-256gb-myatnyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Huawei Nova 10SE 8/256GB серебристый</t>
-        </is>
-      </c>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/ryukzak-dlya-noutbuka-deluxe-a-1854-cherno-seryy</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="80" customHeight="1">
       <c r="B4" t="inlineStr">
         <is>
-          <t>17050</t>
+          <t>Рюкзак для ноутбука Deluxe A-6035-3 черный</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-huawei-nova-10se-8-256gb-serebristyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Infinix Hot 50 8/128GB черный</t>
-        </is>
-      </c>
+          <t>1420</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/ryukzak-dlya-noutbuka-deluxe-a-6035-3-chernyy</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="80" customHeight="1">
       <c r="B5" t="inlineStr">
         <is>
-          <t>14050</t>
+          <t>Ноутбук HP 250 G8 Intel Core i5-1135G7 16GB DDR4 512GB SSD FHD DOS silver</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-infinix-hot-50-8-128gb-chernyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Infinix Hot 50 8/128GB серый</t>
-        </is>
-      </c>
+          <t>67870</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/noutbuk-hp-250-g8-intel-core-i5-1135g7-16gb-ddr4-512gb-ssd-fhd-dos-silver</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="80" customHeight="1">
       <c r="B6" t="inlineStr">
         <is>
-          <t>14050</t>
+          <t>Рюкзак для ноутбука Rivacase 7562 темно/серый</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-infinix-hot-50-8-128gb-seryy</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Infinix Hot 50 8/256GB черный</t>
-        </is>
-      </c>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/ryukzak-dlya-noutbuka-rivacase-7562-temno-seryy</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="80" customHeight="1">
       <c r="B7" t="inlineStr">
         <is>
-          <t>16050</t>
+          <t>Рюкзак для ноутбука Rivacase 7562 серо/коричневый</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-infinix-hot-50-8-256gb-chernyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Tecno Camon 40 8/256GB пустынный титановый</t>
-        </is>
-      </c>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/ryukzak-dlya-noutbuka-rivacase-7562-sero-korichnevyy</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="80" customHeight="1">
       <c r="B8" t="inlineStr">
         <is>
-          <t>16550</t>
+          <t>Сумка для ноутбука Rivacase 7731 темно/серый</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-tecno-camon-40-8-256gb-pustynnyy-titanovyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Tecno Camon 40 12/256GB пустынный титановый</t>
-        </is>
-      </c>
+          <t>2890</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/sumka-dlya-noutbuka-rivacase-7731-temno-seryy</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="80" customHeight="1">
       <c r="B9" t="inlineStr">
         <is>
-          <t>19976</t>
+          <t>Сумка для ноутбука Rivacase 8059 черная</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-tecno-camon-40-12-256gb-pustynnyy-titanovyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Tecno Camon 40 12/256GB галактический черный</t>
-        </is>
-      </c>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/sumka-dlya-noutbuka-rivacase-8059-chernaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="80" customHeight="1">
       <c r="B10" t="inlineStr">
         <is>
-          <t>19976</t>
+          <t>Рюкзак для ноутбука Rivacase 8065 синий</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-tecno-camon-40-12-256gb-galakticheskiy-chernyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Tecno Camon 40 12/256GB ледяной белый</t>
-        </is>
-      </c>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/ryukzak-dlya-noutbuka-rivacase-8065-siniy</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="80" customHeight="1">
       <c r="B11" t="inlineStr">
         <is>
-          <t>19976</t>
+          <t>Ноутбук HP Omen 16-n0023dx AMD Ryzen 7 6800H 16GB DDR5 512GB SSD NVIDIA RTX3060 FHD IPS Backlit W11 Mica Silver</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-tecno-camon-40-12-256gb-ledyanoy-belyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Tecno Pova 7 Neo 8/128GB черный</t>
-        </is>
-      </c>
+          <t>79730</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/noutbuk-hp-omen-16-n0023dx-amd-ryzen-7-6800h-16gb-ddr5-512gb-ssd-nvidia-rtx3060-fhd-ips-backlit-w11-mica-silver</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="80" customHeight="1">
       <c r="B12" t="inlineStr">
         <is>
-          <t>14050</t>
+          <t>Сумка для ноутбука Brinch BW-196</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-tecno-pova-7-neo-8-128gb-chernyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Tecno Pova 7 Neo 8/128GB серебристый</t>
-        </is>
-      </c>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/sumka-dlya-noutbuka-brinch-bw-196</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="80" customHeight="1">
       <c r="B13" t="inlineStr">
         <is>
-          <t>14050</t>
+          <t>Подставка для ноутбука Deepcool N8 серебристая</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-tecno-pova-7-neo-8-128gb-serebristyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Tecno Pova 7 Neo 8/256GB черный</t>
-        </is>
-      </c>
+          <t>4030</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/podstavka-dlya-noutbuka-deepcool-n8-serebristaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="80" customHeight="1">
       <c r="B14" t="inlineStr">
         <is>
-          <t>15050</t>
+          <t>Рюкзак для ноутбука Rivacase 5431 серый</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-tecno-pova-7-neo-8-256gb-chernyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Tecno Pova 7 Neo 8/256GB космический титановый</t>
-        </is>
-      </c>
+          <t>2900</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/ryukzak-dlya-noutbuka-rivacase-5431-seryy</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="80" customHeight="1">
       <c r="B15" t="inlineStr">
         <is>
-          <t>15050</t>
+          <t>Рюкзак для ноутбука Rivacase 5431 черный</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-tecno-pova-7-neo-8-256gb-kosmicheskiy-titanovyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Tecno Spark 30 8/128GB черный</t>
-        </is>
-      </c>
+          <t>2900</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/ryukzak-dlya-noutbuka-rivacase-5431-chernyy</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="80" customHeight="1">
       <c r="B16" t="inlineStr">
         <is>
-          <t>13950</t>
+          <t>Рюкзак для ноутбука Rivacase 5461 черный</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-tecno-spark-30-8-128gb-chernyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Tecno Spark 30 8/128GB белый</t>
-        </is>
-      </c>
+          <t>3040</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/ryukzak-dlya-noutbuka-rivacase-5461-chernyy</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="80" customHeight="1">
       <c r="B17" t="inlineStr">
         <is>
-          <t>13950</t>
+          <t>Рюкзак для ноутбука Rivacase 5461 синий</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-tecno-spark-30-8-128gb-belyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Tecno Spark 30 8/256GB черный</t>
-        </is>
-      </c>
+          <t>3040</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/ryukzak-dlya-noutbuka-rivacase-5461-siniy</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="80" customHeight="1">
       <c r="B18" t="inlineStr">
         <is>
-          <t>15050</t>
+          <t>Рюкзак для ноутбука Rivacase 5562 Lite красный</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-tecno-spark-30-8-256gb-chernyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Tecno Spark 30 8/256GB белый</t>
-        </is>
-      </c>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/ryukzak-dlya-noutbuka-rivacase-5562-lite-krasnyy</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="80" customHeight="1">
       <c r="B19" t="inlineStr">
         <is>
-          <t>15050</t>
+          <t>Рюкзак для ноутбука Rivacase 7761 темно-серый</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-tecno-spark-30-8-256gb-belyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Tecno Spark 30C 4/128GB черный</t>
-        </is>
-      </c>
+          <t>3770</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/ryukzak-dlya-noutbuka-rivacase-7761-temno-seryy</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="80" customHeight="1">
       <c r="B20" t="inlineStr">
         <is>
-          <t>9550</t>
+          <t>Подставка для ноутбука Zalman ZM-NS2000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-tecno-spark-30c-4-128gb-chernyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Tecno Spark 30C 4/128GB белый</t>
-        </is>
-      </c>
+          <t>3220</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/podstavka-dlya-noutbuka-zalman-zm-ns2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="80" customHeight="1">
       <c r="B21" t="inlineStr">
         <is>
-          <t>9550</t>
+          <t>Подставка для ноутбука Zalman ZM-NS1000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-tecno-spark-30c-4-128gb-belyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Tecno Spark 30C 8/256GB черный</t>
-        </is>
-      </c>
+          <t>2610</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/podstavka-dlya-noutbuka-zalman-zm-ns1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="80" customHeight="1">
       <c r="B22" t="inlineStr">
         <is>
-          <t>9850</t>
+          <t>Ноутбук Asus Vivobook X1504VA-NJ1976 Intel Core i5-1334U 24GB DDR4 256GB SSD NVMe LED FHD Silver</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-tecno-spark-30c-8-256gb-chernyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Honor x8a 128GB black</t>
-        </is>
-      </c>
+          <t>49695</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/noutbuk-asus-vivobook-x1504va-nj1976-intel-core-i5-1334u-24gb-ddr4-256gb-ssd-nvme-led-fhd-silver</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="80" customHeight="1">
       <c r="B23" t="inlineStr">
         <is>
-          <t>15050</t>
+          <t>Сумка для ноутбука Brinch BW-185 черная/фиолетовая</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-honor-x8a-128gb-black</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Samsung Galaxy A16 4/128GB серый</t>
-        </is>
-      </c>
+          <t>1420</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/sumka-dlya-noutbuka-brinch-bw-185-chernaya-fioletovaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="80" customHeight="1">
       <c r="B24" t="inlineStr">
         <is>
-          <t>15840</t>
+          <t>Рюкзак для ноутбука Rivacase 7560 серый</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-samsung-galaxy-a16-4-128gb-seryy</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Honor X8b 128GB Black</t>
-        </is>
-      </c>
+          <t>2930</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/ryukzak-dlya-noutbuka-rivacase-7560-seryy</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="80" customHeight="1">
       <c r="B25" t="inlineStr">
         <is>
-          <t>16050</t>
+          <t>Рюкзак для ноутбука Rivacase 7962 серый</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-honor-x8b-128gb-black</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Samsung Galaxy A16 4/128GB зеленый</t>
-        </is>
-      </c>
+          <t>2930</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/ryukzak-dlya-noutbuka-rivacase-7962-seryy</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="80" customHeight="1">
       <c r="B26" t="inlineStr">
         <is>
-          <t>15840</t>
+          <t>Рюкзак для ноутбука Rivacase 8069 черный</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-samsung-galaxy-a16-4-128gb-zelenyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Samsung Galaxy A26 6/128GB черный</t>
-        </is>
-      </c>
+          <t>2360</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/ryukzak-dlya-noutbuka-rivacase-8069-chernyy</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="80" customHeight="1">
       <c r="B27" t="inlineStr">
         <is>
-          <t>24470</t>
+          <t>Подставка для ноутбука DeepCool N200 15,6" черная</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-samsung-galaxy-a26-6-128gb-chernyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Samsung Galaxy A16 4/128GB черный</t>
-        </is>
-      </c>
+          <t>1420</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/podstavka-dlya-noutbuka-deepcool-n200-15-6-chernaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="80" customHeight="1">
       <c r="B28" t="inlineStr">
         <is>
-          <t>15840</t>
+          <t>Адаптер для накопителя в отсек привода ноутбука Dexp AT-DH01</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-samsung-galaxy-a16-4-128gb-chernyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Honor X8b 128GB Silver</t>
-        </is>
-      </c>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/adapter-dlya-nakopitelya-v-otsek-privoda-noutbuka-dexp-at-dh01</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="80" customHeight="1">
       <c r="B29" t="inlineStr">
         <is>
-          <t>16050</t>
+          <t>Адаптер для накопителя в отсек привода ноутбука Dexp AT-DH02</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-honor-x8b-128gb-silver</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Samsung Galaxy A26 6/128GB белый</t>
-        </is>
-      </c>
+          <t>1399</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/adapter-dlya-nakopitelya-v-otsek-privoda-noutbuka-dexp-at-dh02</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="80" customHeight="1">
       <c r="B30" t="inlineStr">
         <is>
-          <t>24470</t>
+          <t>Подставка для ноутбука Deepcool WIND PAL MINI DP-N114L-WDMI</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-samsung-galaxy-a26-6-128gb-belyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Samsung Galaxy A16 8/256GB зеленый</t>
-        </is>
-      </c>
+          <t>1470</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/podstavka-dlya-noutbuka-deepcool-wind-pal-mini-dp-n114l-wdmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="80" customHeight="1">
       <c r="B31" t="inlineStr">
         <is>
-          <t>19400</t>
+          <t>Сумка для ноутбука Deluxe Athenes A7955 Gray</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-samsung-galaxy-a16-8-256gb-zelenyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Samsung Galaxy A26 6/128GB мятный</t>
-        </is>
-      </c>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/sumka-dlya-noutbuka-deluxe-athenes-a7955-gray</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="80" customHeight="1">
       <c r="B32" t="inlineStr">
         <is>
-          <t>24470</t>
+          <t>Сумка для ноутбука Deluxe Ottawa A7919 Black</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-samsung-galaxy-a26-6-128gb-myatnyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Samsung Galaxy A16 8/256GB серый</t>
-        </is>
-      </c>
+          <t>2570</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/sumka-dlya-noutbuka-deluxe-ottawa-a7919-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="80" customHeight="1">
       <c r="B33" t="inlineStr">
         <is>
-          <t>19400</t>
+          <t>Ноутбук Acer Predator Helios NEO 14 PHN14-51-79UB Ultra 7 155H 16GB 1TB SSD RTX4070 8GB IPS 14.5" Win11 Obsidian black</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-samsung-galaxy-a16-8-256gb-seryy</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Honor X8b 256GB Black</t>
-        </is>
-      </c>
+          <t>121280</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/noutbuk-acer-predator-helios-neo-14-phn14-51-79ub-ultra-7-155h-16gb-1tb-ssd-rtx4070-8gb-ips-14-5-win11-obsidian-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="80" customHeight="1">
       <c r="B34" t="inlineStr">
         <is>
-          <t>18050</t>
+          <t>Ноутбук MSI Vector 16 HX AI A2XWHG-061US Intel Core Ultra 7-255HX 16GB DDR5 512GB SSD RTX5070Ti 15.6", FHD Win11 Cosmo Gray</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-honor-x8b-256gb-black</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Samsung Galaxy A26 6/128GB персиковый</t>
-        </is>
-      </c>
+          <t>199450</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/noutbuk-msi-vector-16-hx-ai-a2xwhg-061us-intel-core-ultra-7-255hx-16gb-ddr5-512gb-ssd-rtx5070ti-15-6-fhd-win11-cosmo-gray</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="80" customHeight="1">
       <c r="B35" t="inlineStr">
         <is>
-          <t>24470</t>
+          <t>Ноутбук Lenovo V15 GEN4 ITL Intel Core i3-1315U 12GB DDR4 512GB SSD 15.6" FHD DOS Black</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-samsung-galaxy-a26-6-128gb-persikovyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Samsung Galaxy S24 FE 8/256GB серый</t>
-        </is>
-      </c>
+          <t>39435</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/noutbuk-lenovo-v15-gen4-itl-intel-core-i3-1315u-12gb-ddr4-512gb-ssd-15-6-fhd-dos-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="80" customHeight="1">
       <c r="B36" t="inlineStr">
         <is>
-          <t>49390</t>
+          <t>Ноутбук Lenovo V15 GEN4 ITL Intel Core i3-1315U 8GB DDR4 512GB SSD NVMe 15.6" FHD IPS DOS Black</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-samsung-galaxy-s24-fe-8-256gb-seryy</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Samsung Galaxy A16 8/256GB черный</t>
-        </is>
-      </c>
+          <t>38130</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/noutbuk-lenovo-v15-gen4-itl-intel-core-i3-1315u-8gb-ddr4-512gb-ssd-nvme-15-6-fhd-ips-dos-black</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="80" customHeight="1">
       <c r="B37" t="inlineStr">
         <is>
-          <t>19400</t>
+          <t>Подставка для ноутбука Crown CMLS-150</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-samsung-galaxy-a16-8-256gb-chernyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Honor X8b 256GB Silver</t>
-        </is>
-      </c>
+          <t>2999</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/podstavka-dlya-noutbuka-crown-cmls-150</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="80" customHeight="1">
       <c r="B38" t="inlineStr">
         <is>
-          <t>18050</t>
+          <t>Ноутбук Acer Aspire Lite AL16-52P Intel Core i3-1305U 32GB DDR5 128GB SSD NVMe IPS 1920x1200 Light Silver</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-honor-x8b-256gb-silver</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Samsung Galaxy S24 FE 8/256GB графитовый</t>
-        </is>
-      </c>
+          <t>45191</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/noutbuk-acer-aspire-lite-al16-52p-intel-core-i3-1305u-32gb-ddr5-128gb-ssd-nvme-ips-1920x1200-light-silver</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="80" customHeight="1">
       <c r="B39" t="inlineStr">
         <is>
-          <t>49390</t>
+          <t>Ноутбук Lenovo IdeaPad Slim 3 16IRH10 Intel Core i7-13620H 40GB DDR5 1TB SSD NVMe + 1TB SSD NVMe IPS 1920x1200 Gray</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-samsung-galaxy-s24-fe-8-256gb-grafitovyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Samsung Galaxy Z Flip 6 12/256GB серебристый</t>
-        </is>
-      </c>
+          <t>76813</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/noutbuk-lenovo-ideapad-slim-3-16irh10-intel-core-i7-13620h-40gb-ddr5-1tb-ssd-nvme-1tb-ssd-nvme-ips-1920x1200-gray</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="80" customHeight="1">
       <c r="B40" t="inlineStr">
         <is>
-          <t>73070</t>
+          <t>Ноутбук Lenovo IdeaPad Slim 3 15IRH10 Intel Core i7-13620H 16GB DDR5 512GB + 256GB SSD NVMe IPS 1920x1200 Luna grey</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-samsung-galaxy-z-flip-6-12-256gb-serebristyy</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Сотовый телефон Samsung Galaxy A56 8/128GB графитовый</t>
-        </is>
-      </c>
+          <t>65439</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/noutbuk-lenovo-ideapad-slim-3-15irh10-intel-core-i7-13620h-16gb-ddr5-512gb-256gb-ssd-nvme-ips-1920x1200-luna-grey</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="80" customHeight="1">
       <c r="B41" t="inlineStr">
         <is>
-          <t>34260</t>
+          <t>Ноутбук Acer Aspire A315-59 Intel Core i7-1255U 12GB DDR4 512GB SSD NVMe FHD Pure Silver</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.kivano.kg/product/view/sotovyy-telefon-samsung-galaxy-a56-8-128gb-grafitovyy</t>
+          <t>53695</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.kivano.kg/product/view/noutbuk-acer-aspire-a315-59-intel-core-i7-1255u-12gb-ddr4-512gb-ssd-nvme-fhd-pure-silver</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>